--- a/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18420,7 +18421,6 @@
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>91.39</t>
@@ -18452,7 +18452,6 @@
           <t>宝盈祥瑞养老混合C</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
           <t>29.79</t>
@@ -18484,7 +18483,6 @@
           <t>九泰锐丰灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
           <t>94.44</t>
@@ -18500,6 +18498,7536 @@
       </c>
       <c r="H165" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5501</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.3459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>115.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.8681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.7220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.5109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.4630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.1301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.7666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.7398</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.7174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.3693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.3339</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.1805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.1603</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.9799</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.9082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.8968</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.8740</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.7871</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.7747</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.7582</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.6651</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.5736</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.5587</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.4487</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.3189</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.3160</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.1537</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.1114</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.1076</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0170</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.0155</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8766</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8183</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.7225</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6816</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6596</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41301,7 +41302,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -41497,6 +41497,106 @@
       </c>
       <c r="H407" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>406</v>
+      </c>
+      <c r="D2" t="n">
+        <v>233.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>153.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>193.87</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600438-通威股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41510,7 +41511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41521,17 +41522,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -41541,14 +41562,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>233.39</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -41557,14 +41600,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>197</v>
-      </c>
-      <c r="D3" t="n">
-        <v>153.23</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.5517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -41573,14 +41638,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>164</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.84</v>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -41589,13 +41676,7933 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.3384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.1444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.1181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.6861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.3781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.6258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.2973</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>138.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.1419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6585</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.6196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4795</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4667</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4123</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2793</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.1399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.1319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6793</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6482</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5823</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5344</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3593</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2896</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2783</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2685</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2255</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2254</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010854</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>71.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2157</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.1831</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.1463</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.1080</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.0682</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.0221</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0190</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.0169</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.0067</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.0052</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9978</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9953</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.9902</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.9478</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9109</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.9051</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8880</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8596</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.8189</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.7309</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5407</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4425</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008238</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010855</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005530</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>168104</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>516580</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时中证新能源交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008239</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010556</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>168111</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>九泰锐丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>164.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>406</v>
+      </c>
+      <c r="D3" t="n">
+        <v>233.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>197</v>
+      </c>
+      <c r="D4" t="n">
+        <v>153.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>309</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>193.87</v>
       </c>
     </row>
